--- a/public/语料制作流程数据.xlsx
+++ b/public/语料制作流程数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27160" windowHeight="11860" activeTab="1"/>
+    <workbookView windowHeight="14680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="近期任务" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="91">
   <si>
     <t>任务名称</t>
   </si>
@@ -127,6 +127,168 @@
   </si>
   <si>
     <t>冶金工业工艺说明书、安全生产手册、管理规范数据</t>
+  </si>
+  <si>
+    <t>锂电池生产制造产业链数据_分片1</t>
+  </si>
+  <si>
+    <t>法院案件判罚数据_分片1</t>
+  </si>
+  <si>
+    <t>航空业各航司航线、热度、运营与成本数据_分片1</t>
+  </si>
+  <si>
+    <t>2010-2022年全国各建筑单位营收与商品房建筑、售卖数据_分片1</t>
+  </si>
+  <si>
+    <t>光伏产业数据_分片1</t>
+  </si>
+  <si>
+    <t>各行业论文数据_分片1</t>
+  </si>
+  <si>
+    <t>医疗诊断数据_分片1</t>
+  </si>
+  <si>
+    <t>市场交易数据、公司实体披露数据_分片1</t>
+  </si>
+  <si>
+    <t>冶金工业工艺说明书、安全生产手册、管理规范数据_分片1</t>
+  </si>
+  <si>
+    <t>锂电池生产制造产业链数据_分片2</t>
+  </si>
+  <si>
+    <t>法院案件判罚数据_分片2</t>
+  </si>
+  <si>
+    <t>航空业各航司航线、热度、运营与成本数据_分片2</t>
+  </si>
+  <si>
+    <t>2010-2022年全国各建筑单位营收与商品房建筑、售卖数据_分片2</t>
+  </si>
+  <si>
+    <t>光伏产业数据_分片2</t>
+  </si>
+  <si>
+    <t>各行业论文数据_分片2</t>
+  </si>
+  <si>
+    <t>医疗诊断数据_分片2</t>
+  </si>
+  <si>
+    <t>市场交易数据、公司实体披露数据_分片2</t>
+  </si>
+  <si>
+    <t>冶金工业工艺说明书、安全生产手册、管理规范数据_分片2</t>
+  </si>
+  <si>
+    <t>锂电池生产制造产业链数据_分片3</t>
+  </si>
+  <si>
+    <t>法院案件判罚数据_分片3</t>
+  </si>
+  <si>
+    <t>航空业各航司航线、热度、运营与成本数据_分片3</t>
+  </si>
+  <si>
+    <t>2010-2022年全国各建筑单位营收与商品房建筑、售卖数据_分片3</t>
+  </si>
+  <si>
+    <t>光伏产业数据_分片3</t>
+  </si>
+  <si>
+    <t>各行业论文数据_分片3</t>
+  </si>
+  <si>
+    <t>医疗诊断数据_分片3</t>
+  </si>
+  <si>
+    <t>市场交易数据、公司实体披露数据_分片3</t>
+  </si>
+  <si>
+    <t>冶金工业工艺说明书、安全生产手册、管理规范数据_分片3</t>
+  </si>
+  <si>
+    <t>锂电池生产制造产业链数据_分片4</t>
+  </si>
+  <si>
+    <t>法院案件判罚数据_分片4</t>
+  </si>
+  <si>
+    <t>航空业各航司航线、热度、运营与成本数据_分片4</t>
+  </si>
+  <si>
+    <t>2010-2022年全国各建筑单位营收与商品房建筑、售卖数据_分片4</t>
+  </si>
+  <si>
+    <t>光伏产业数据_分片4</t>
+  </si>
+  <si>
+    <t>各行业论文数据_分片4</t>
+  </si>
+  <si>
+    <t>医疗诊断数据_分片4</t>
+  </si>
+  <si>
+    <t>市场交易数据、公司实体披露数据_分片4</t>
+  </si>
+  <si>
+    <t>冶金工业工艺说明书、安全生产手册、管理规范数据_分片4</t>
+  </si>
+  <si>
+    <t>锂电池生产制造产业链数据_分片5</t>
+  </si>
+  <si>
+    <t>法院案件判罚数据_分片5</t>
+  </si>
+  <si>
+    <t>航空业各航司航线、热度、运营与成本数据_分片5</t>
+  </si>
+  <si>
+    <t>2010-2022年全国各建筑单位营收与商品房建筑、售卖数据_分片5</t>
+  </si>
+  <si>
+    <t>光伏产业数据_分片5</t>
+  </si>
+  <si>
+    <t>各行业论文数据_分片5</t>
+  </si>
+  <si>
+    <t>医疗诊断数据_分片5</t>
+  </si>
+  <si>
+    <t>市场交易数据、公司实体披露数据_分片5</t>
+  </si>
+  <si>
+    <t>冶金工业工艺说明书、安全生产手册、管理规范数据_分片5</t>
+  </si>
+  <si>
+    <t>锂电池生产制造产业链数据_分片6</t>
+  </si>
+  <si>
+    <t>法院案件判罚数据_分片6</t>
+  </si>
+  <si>
+    <t>航空业各航司航线、热度、运营与成本数据_分片6</t>
+  </si>
+  <si>
+    <t>2010-2022年全国各建筑单位营收与商品房建筑、售卖数据_分片6</t>
+  </si>
+  <si>
+    <t>光伏产业数据_分片6</t>
+  </si>
+  <si>
+    <t>各行业论文数据_分片6</t>
+  </si>
+  <si>
+    <t>医疗诊断数据_分片6</t>
+  </si>
+  <si>
+    <t>市场交易数据、公司实体披露数据_分片6</t>
+  </si>
+  <si>
+    <t>冶金工业工艺说明书、安全生产手册、管理规范数据_分片6</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1256,7 @@
       </c>
       <c r="B2">
         <f ca="1" t="shared" ref="B2:B23" si="0">RANDBETWEEN(24,128)</f>
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1106,7 +1268,7 @@
       </c>
       <c r="B3">
         <f ca="1" t="shared" si="0"/>
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1118,7 +1280,7 @@
       </c>
       <c r="B4">
         <f ca="1" t="shared" si="0"/>
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1130,7 +1292,7 @@
       </c>
       <c r="B5">
         <f ca="1" t="shared" si="0"/>
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1142,7 +1304,7 @@
       </c>
       <c r="B6">
         <f ca="1" t="shared" si="0"/>
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1154,7 +1316,7 @@
       </c>
       <c r="B7">
         <f ca="1" t="shared" si="0"/>
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1166,7 +1328,7 @@
       </c>
       <c r="B8">
         <f ca="1" t="shared" si="0"/>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -1178,7 +1340,7 @@
       </c>
       <c r="B9">
         <f ca="1" t="shared" si="0"/>
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -1190,7 +1352,7 @@
       </c>
       <c r="B10">
         <f ca="1" t="shared" si="0"/>
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -1202,7 +1364,7 @@
       </c>
       <c r="B11">
         <f ca="1" t="shared" si="0"/>
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1214,7 +1376,7 @@
       </c>
       <c r="B12">
         <f ca="1" t="shared" si="0"/>
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1226,7 +1388,7 @@
       </c>
       <c r="B13">
         <f ca="1" t="shared" si="0"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1238,7 +1400,7 @@
       </c>
       <c r="B14">
         <f ca="1" t="shared" si="0"/>
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -1250,7 +1412,7 @@
       </c>
       <c r="B15">
         <f ca="1" t="shared" si="0"/>
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1262,7 +1424,7 @@
       </c>
       <c r="B16">
         <f ca="1" t="shared" si="0"/>
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1286,7 +1448,7 @@
       </c>
       <c r="B18">
         <f ca="1" t="shared" si="0"/>
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1298,7 +1460,7 @@
       </c>
       <c r="B19">
         <f ca="1" t="shared" si="0"/>
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -1310,7 +1472,7 @@
       </c>
       <c r="B20">
         <f ca="1" t="shared" si="0"/>
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1322,7 +1484,7 @@
       </c>
       <c r="B21">
         <f ca="1" t="shared" si="0"/>
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1334,7 +1496,7 @@
       </c>
       <c r="B22">
         <f ca="1" t="shared" si="0"/>
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1346,7 +1508,7 @@
       </c>
       <c r="B23">
         <f ca="1" t="shared" si="0"/>
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1361,15 +1523,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="46.2211538461538" customWidth="1"/>
+    <col min="1" max="1" width="68.2692307692308" customWidth="1"/>
     <col min="2" max="2" width="17.7019230769231" customWidth="1"/>
     <col min="3" max="3" width="9.89423076923077" customWidth="1"/>
   </cols>
@@ -1390,7 +1552,8 @@
         <v>28</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <f ca="1">RANDBETWEEN(24,128)</f>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1401,7 +1564,8 @@
         <v>29</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <f ca="1" t="shared" ref="B3:B10" si="0">RANDBETWEEN(24,128)</f>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -1412,7 +1576,8 @@
         <v>30</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1423,7 +1588,8 @@
         <v>31</v>
       </c>
       <c r="B5">
-        <v>120</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1434,7 +1600,8 @@
         <v>32</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1445,7 +1612,8 @@
         <v>33</v>
       </c>
       <c r="B7">
-        <v>28</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1456,7 +1624,8 @@
         <v>34</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1467,7 +1636,8 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1478,9 +1648,658 @@
         <v>36</v>
       </c>
       <c r="B10">
+        <f ca="1" t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <f ca="1" t="shared" ref="B11:B19" si="1">RANDBETWEEN(24,128)</f>
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <f ca="1" t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <f ca="1" t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <f ca="1" t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <f ca="1" t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <f ca="1" t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <f ca="1" t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <f ca="1" t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <f ca="1" t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <f ca="1" t="shared" ref="B20:B28" si="2">RANDBETWEEN(24,128)</f>
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <f ca="1" t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22">
+        <f ca="1" t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <f ca="1" t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <f ca="1" t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25">
+        <f ca="1" t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <f ca="1" t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27">
+        <f ca="1" t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28">
+        <f ca="1" t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <f ca="1" t="shared" ref="B29:B37" si="3">RANDBETWEEN(24,128)</f>
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30">
+        <f ca="1" t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <f ca="1" t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32">
+        <f ca="1" t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33">
+        <f ca="1" t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34">
+        <f ca="1" t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35">
+        <f ca="1" t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36">
+        <f ca="1" t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37">
+        <f ca="1" t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38">
+        <f ca="1" t="shared" ref="B38:B46" si="4">RANDBETWEEN(24,128)</f>
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39">
+        <f ca="1" t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40">
+        <f ca="1" t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41">
+        <f ca="1" t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42">
+        <f ca="1" t="shared" si="4"/>
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43">
+        <f ca="1" t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <f ca="1" t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45">
+        <f ca="1" t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46">
+        <f ca="1" t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47">
+        <f ca="1" t="shared" ref="B47:B55" si="5">RANDBETWEEN(24,128)</f>
+        <v>63</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48">
+        <f ca="1" t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49">
+        <f ca="1" t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50">
+        <f ca="1" t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51">
+        <f ca="1" t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52">
+        <f ca="1" t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53">
+        <f ca="1" t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54">
+        <f ca="1" t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" ht="14" customHeight="1" spans="1:3">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55">
+        <f ca="1" t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56">
+        <f ca="1" t="shared" ref="B56:B64" si="6">RANDBETWEEN(24,128)</f>
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57">
+        <f ca="1" t="shared" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58">
+        <f ca="1" t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59">
+        <f ca="1" t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60">
+        <f ca="1" t="shared" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61">
+        <f ca="1" t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62">
+        <f ca="1" t="shared" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63">
+        <f ca="1" t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64">
+        <f ca="1" t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="C64" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1496,7 +2315,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>

--- a/public/语料制作流程数据.xlsx
+++ b/public/语料制作流程数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14680" activeTab="1"/>
+    <workbookView windowHeight="23960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="近期任务" sheetId="1" r:id="rId1"/>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B2">
         <f ca="1" t="shared" ref="B2:B23" si="0">RANDBETWEEN(24,128)</f>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B3">
         <f ca="1" t="shared" si="0"/>
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B4">
         <f ca="1" t="shared" si="0"/>
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B5">
         <f ca="1" t="shared" si="0"/>
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B6">
         <f ca="1" t="shared" si="0"/>
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B7">
         <f ca="1" t="shared" si="0"/>
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B8">
         <f ca="1" t="shared" si="0"/>
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="B9">
         <f ca="1" t="shared" si="0"/>
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B10">
         <f ca="1" t="shared" si="0"/>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B11">
         <f ca="1" t="shared" si="0"/>
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B12">
         <f ca="1" t="shared" si="0"/>
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B13">
         <f ca="1" t="shared" si="0"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="B14">
         <f ca="1" t="shared" si="0"/>
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="B15">
         <f ca="1" t="shared" si="0"/>
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B16">
         <f ca="1" t="shared" si="0"/>
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B17">
         <f ca="1" t="shared" si="0"/>
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B18">
         <f ca="1" t="shared" si="0"/>
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="B19">
         <f ca="1" t="shared" si="0"/>
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="B20">
         <f ca="1" t="shared" si="0"/>
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="B21">
         <f ca="1" t="shared" si="0"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B23">
         <f ca="1" t="shared" si="0"/>
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1525,8 +1525,8 @@
   <sheetPr/>
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(24,128)</f>
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B3">
         <f ca="1" t="shared" ref="B3:B10" si="0">RANDBETWEEN(24,128)</f>
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B4">
         <f ca="1" t="shared" si="0"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="B5">
         <f ca="1" t="shared" si="0"/>
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B6">
         <f ca="1" t="shared" si="0"/>
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B7">
         <f ca="1" t="shared" si="0"/>
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B8">
         <f ca="1" t="shared" si="0"/>
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B9">
         <f ca="1" t="shared" si="0"/>
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B10">
         <f ca="1" t="shared" si="0"/>
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B11">
         <f ca="1" t="shared" ref="B11:B19" si="1">RANDBETWEEN(24,128)</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B12">
         <f ca="1" t="shared" si="1"/>
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B13">
         <f ca="1" t="shared" si="1"/>
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B14">
         <f ca="1" t="shared" si="1"/>
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="B15">
         <f ca="1" t="shared" si="1"/>
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B16">
         <f ca="1" t="shared" si="1"/>
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B17">
         <f ca="1" t="shared" si="1"/>
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="B18">
         <f ca="1" t="shared" si="1"/>
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B19">
         <f ca="1" t="shared" si="1"/>
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B20">
         <f ca="1" t="shared" ref="B20:B28" si="2">RANDBETWEEN(24,128)</f>
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B21">
         <f ca="1" t="shared" si="2"/>
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B22">
         <f ca="1" t="shared" si="2"/>
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B23">
         <f ca="1" t="shared" si="2"/>
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B24">
         <f ca="1" t="shared" si="2"/>
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B25">
         <f ca="1" t="shared" si="2"/>
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B26">
         <f ca="1" t="shared" si="2"/>
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B27">
         <f ca="1" t="shared" si="2"/>
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="B28">
         <f ca="1" t="shared" si="2"/>
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B29">
         <f ca="1" t="shared" ref="B29:B37" si="3">RANDBETWEEN(24,128)</f>
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B30">
         <f ca="1" t="shared" si="3"/>
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B31">
         <f ca="1" t="shared" si="3"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B32">
         <f ca="1" t="shared" si="3"/>
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="B33">
         <f ca="1" t="shared" si="3"/>
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B34">
         <f ca="1" t="shared" si="3"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B35">
         <f ca="1" t="shared" si="3"/>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B36">
         <f ca="1" t="shared" si="3"/>
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="B37">
         <f ca="1" t="shared" si="3"/>
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B38">
         <f ca="1" t="shared" ref="B38:B46" si="4">RANDBETWEEN(24,128)</f>
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="B39">
         <f ca="1" t="shared" si="4"/>
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B40">
         <f ca="1" t="shared" si="4"/>
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B41">
         <f ca="1" t="shared" si="4"/>
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="B42">
         <f ca="1" t="shared" si="4"/>
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="B43">
         <f ca="1" t="shared" si="4"/>
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B44">
         <f ca="1" t="shared" si="4"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B45">
         <f ca="1" t="shared" si="4"/>
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B46">
         <f ca="1" t="shared" si="4"/>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B47">
         <f ca="1" t="shared" ref="B47:B55" si="5">RANDBETWEEN(24,128)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B48">
         <f ca="1" t="shared" si="5"/>
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B49">
         <f ca="1" t="shared" si="5"/>
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B50">
         <f ca="1" t="shared" si="5"/>
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B51">
         <f ca="1" t="shared" si="5"/>
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B52">
         <f ca="1" t="shared" si="5"/>
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B53">
         <f ca="1" t="shared" si="5"/>
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B54">
         <f ca="1" t="shared" si="5"/>
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B55">
         <f ca="1" t="shared" si="5"/>
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B56">
         <f ca="1" t="shared" ref="B56:B64" si="6">RANDBETWEEN(24,128)</f>
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B57">
         <f ca="1" t="shared" si="6"/>
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="B58">
         <f ca="1" t="shared" si="6"/>
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B59">
         <f ca="1" t="shared" si="6"/>
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="B60">
         <f ca="1" t="shared" si="6"/>
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B61">
         <f ca="1" t="shared" si="6"/>
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B62">
         <f ca="1" t="shared" si="6"/>
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="B63">
         <f ca="1" t="shared" si="6"/>
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B64">
         <f ca="1" t="shared" si="6"/>
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>

--- a/public/语料制作流程数据.xlsx
+++ b/public/语料制作流程数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23960" activeTab="1"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="近期任务" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="70">
   <si>
     <t>任务名称</t>
   </si>
@@ -100,69 +100,6 @@
   </si>
   <si>
     <t>永磁材料的组分分析和性状分析应用知识提取</t>
-  </si>
-  <si>
-    <t>锂电池生产制造产业链数据</t>
-  </si>
-  <si>
-    <t>法院案件判罚数据</t>
-  </si>
-  <si>
-    <t>航空业各航司航线、热度、运营与成本数据</t>
-  </si>
-  <si>
-    <t>2010-2022年全国各建筑单位营收与商品房建筑、售卖数据</t>
-  </si>
-  <si>
-    <t>光伏产业数据</t>
-  </si>
-  <si>
-    <t>各行业论文数据</t>
-  </si>
-  <si>
-    <t>医疗诊断数据</t>
-  </si>
-  <si>
-    <t>市场交易数据、公司实体披露数据</t>
-  </si>
-  <si>
-    <t>冶金工业工艺说明书、安全生产手册、管理规范数据</t>
-  </si>
-  <si>
-    <t>锂电池生产制造产业链数据_分片1</t>
-  </si>
-  <si>
-    <t>法院案件判罚数据_分片1</t>
-  </si>
-  <si>
-    <t>航空业各航司航线、热度、运营与成本数据_分片1</t>
-  </si>
-  <si>
-    <t>2010-2022年全国各建筑单位营收与商品房建筑、售卖数据_分片1</t>
-  </si>
-  <si>
-    <t>光伏产业数据_分片1</t>
-  </si>
-  <si>
-    <t>各行业论文数据_分片1</t>
-  </si>
-  <si>
-    <t>医疗诊断数据_分片1</t>
-  </si>
-  <si>
-    <t>市场交易数据、公司实体披露数据_分片1</t>
-  </si>
-  <si>
-    <t>冶金工业工艺说明书、安全生产手册、管理规范数据_分片1</t>
-  </si>
-  <si>
-    <t>锂电池生产制造产业链数据_分片2</t>
-  </si>
-  <si>
-    <t>法院案件判罚数据_分片2</t>
-  </si>
-  <si>
-    <t>航空业各航司航线、热度、运营与成本数据_分片2</t>
   </si>
   <si>
     <t>2010-2022年全国各建筑单位营收与商品房建筑、售卖数据_分片2</t>
@@ -1230,7 +1167,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B23"/>
+      <selection activeCell="A11" sqref="A11:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1256,7 +1193,7 @@
       </c>
       <c r="B2">
         <f ca="1" t="shared" ref="B2:B23" si="0">RANDBETWEEN(24,128)</f>
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1268,7 +1205,7 @@
       </c>
       <c r="B3">
         <f ca="1" t="shared" si="0"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1280,7 +1217,7 @@
       </c>
       <c r="B4">
         <f ca="1" t="shared" si="0"/>
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1292,7 +1229,7 @@
       </c>
       <c r="B5">
         <f ca="1" t="shared" si="0"/>
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1304,7 +1241,7 @@
       </c>
       <c r="B6">
         <f ca="1" t="shared" si="0"/>
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1316,7 +1253,7 @@
       </c>
       <c r="B7">
         <f ca="1" t="shared" si="0"/>
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1328,7 +1265,7 @@
       </c>
       <c r="B8">
         <f ca="1" t="shared" si="0"/>
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -1340,7 +1277,7 @@
       </c>
       <c r="B9">
         <f ca="1" t="shared" si="0"/>
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -1352,7 +1289,7 @@
       </c>
       <c r="B10">
         <f ca="1" t="shared" si="0"/>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -1364,7 +1301,7 @@
       </c>
       <c r="B11">
         <f ca="1" t="shared" si="0"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1376,7 +1313,7 @@
       </c>
       <c r="B12">
         <f ca="1" t="shared" si="0"/>
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1388,7 +1325,7 @@
       </c>
       <c r="B13">
         <f ca="1" t="shared" si="0"/>
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1400,7 +1337,7 @@
       </c>
       <c r="B14">
         <f ca="1" t="shared" si="0"/>
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -1412,7 +1349,7 @@
       </c>
       <c r="B15">
         <f ca="1" t="shared" si="0"/>
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1424,7 +1361,7 @@
       </c>
       <c r="B16">
         <f ca="1" t="shared" si="0"/>
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1436,7 +1373,7 @@
       </c>
       <c r="B17">
         <f ca="1" t="shared" si="0"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1448,7 +1385,7 @@
       </c>
       <c r="B18">
         <f ca="1" t="shared" si="0"/>
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1460,7 +1397,7 @@
       </c>
       <c r="B19">
         <f ca="1" t="shared" si="0"/>
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -1472,7 +1409,7 @@
       </c>
       <c r="B20">
         <f ca="1" t="shared" si="0"/>
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1484,7 +1421,7 @@
       </c>
       <c r="B21">
         <f ca="1" t="shared" si="0"/>
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1496,7 +1433,7 @@
       </c>
       <c r="B22">
         <f ca="1" t="shared" si="0"/>
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1508,7 +1445,7 @@
       </c>
       <c r="B23">
         <f ca="1" t="shared" si="0"/>
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1523,10 +1460,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1549,11 +1486,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <f ca="1">RANDBETWEEN(24,128)</f>
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1561,11 +1497,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <f ca="1" t="shared" ref="B3:B10" si="0">RANDBETWEEN(24,128)</f>
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -1573,11 +1508,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <f ca="1" t="shared" si="0"/>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1585,23 +1519,21 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <f ca="1" t="shared" si="0"/>
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <f ca="1" t="shared" si="0"/>
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1609,11 +1541,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <f ca="1" t="shared" si="0"/>
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1621,11 +1552,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <f ca="1" t="shared" si="0"/>
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1633,11 +1563,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <f ca="1" t="shared" si="0"/>
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1645,23 +1574,21 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <f ca="1" t="shared" si="0"/>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <f ca="1" t="shared" ref="B11:B19" si="1">RANDBETWEEN(24,128)</f>
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1669,11 +1596,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <f ca="1" t="shared" si="1"/>
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1681,11 +1607,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <f ca="1" t="shared" si="1"/>
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1693,11 +1618,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B14">
-        <f ca="1" t="shared" si="1"/>
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1705,11 +1629,11 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B15">
-        <f ca="1" t="shared" si="1"/>
-        <v>71</v>
+        <f ca="1" t="shared" ref="B12:B20" si="0">RANDBETWEEN(24,128)</f>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1717,11 +1641,11 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B16">
-        <f ca="1" t="shared" si="1"/>
-        <v>107</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1729,11 +1653,11 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B17">
-        <f ca="1" t="shared" si="1"/>
-        <v>92</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1741,11 +1665,11 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B18">
-        <f ca="1" t="shared" si="1"/>
-        <v>85</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1753,203 +1677,203 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B19">
+        <f ca="1" t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <f ca="1" t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <f ca="1" t="shared" ref="B21:B29" si="1">RANDBETWEEN(24,128)</f>
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
         <f ca="1" t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <f ca="1" t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <f ca="1" t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <f ca="1" t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <f ca="1" t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <f ca="1" t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <f ca="1" t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <f ca="1" t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <f ca="1" t="shared" ref="B30:B38" si="2">RANDBETWEEN(24,128)</f>
+        <v>128</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <f ca="1" t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <f ca="1" t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>46</v>
       </c>
-      <c r="B20">
-        <f ca="1" t="shared" ref="B20:B28" si="2">RANDBETWEEN(24,128)</f>
-        <v>126</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B33">
+        <f ca="1" t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>47</v>
       </c>
-      <c r="B21">
+      <c r="B34">
         <f ca="1" t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22">
-        <f ca="1" t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23">
-        <f ca="1" t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24">
-        <f ca="1" t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25">
-        <f ca="1" t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26">
-        <f ca="1" t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27">
-        <f ca="1" t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28">
-        <f ca="1" t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29">
-        <f ca="1" t="shared" ref="B29:B37" si="3">RANDBETWEEN(24,128)</f>
-        <v>85</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30">
-        <f ca="1" t="shared" si="3"/>
-        <v>117</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31">
-        <f ca="1" t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32">
-        <f ca="1" t="shared" si="3"/>
-        <v>108</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33">
-        <f ca="1" t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34">
-        <f ca="1" t="shared" si="3"/>
-        <v>98</v>
-      </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B35">
-        <f ca="1" t="shared" si="3"/>
-        <v>45</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -1957,11 +1881,11 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B36">
-        <f ca="1" t="shared" si="3"/>
-        <v>78</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -1969,11 +1893,11 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B37">
-        <f ca="1" t="shared" si="3"/>
-        <v>118</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -1981,11 +1905,11 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B38">
-        <f ca="1" t="shared" ref="B38:B46" si="4">RANDBETWEEN(24,128)</f>
-        <v>118</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -1993,11 +1917,11 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B39">
-        <f ca="1" t="shared" si="4"/>
-        <v>81</v>
+        <f ca="1" t="shared" ref="B39:B47" si="3">RANDBETWEEN(24,128)</f>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2005,11 +1929,11 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B40">
-        <f ca="1" t="shared" si="4"/>
-        <v>101</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -2017,11 +1941,11 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B41">
-        <f ca="1" t="shared" si="4"/>
-        <v>88</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -2029,11 +1953,11 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B42">
-        <f ca="1" t="shared" si="4"/>
-        <v>78</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -2041,11 +1965,11 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B43">
-        <f ca="1" t="shared" si="4"/>
-        <v>78</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -2053,11 +1977,11 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B44">
-        <f ca="1" t="shared" si="4"/>
-        <v>100</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -2065,11 +1989,11 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B45">
-        <f ca="1" t="shared" si="4"/>
-        <v>97</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2077,23 +2001,23 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B46">
-        <f ca="1" t="shared" si="4"/>
-        <v>97</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" ht="14" customHeight="1" spans="1:3">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B47">
-        <f ca="1" t="shared" ref="B47:B55" si="5">RANDBETWEEN(24,128)</f>
-        <v>78</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -2101,11 +2025,11 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B48">
-        <f ca="1" t="shared" si="5"/>
-        <v>100</v>
+        <f ca="1" t="shared" ref="B48:B56" si="4">RANDBETWEEN(24,128)</f>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -2113,11 +2037,11 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B49">
-        <f ca="1" t="shared" si="5"/>
-        <v>78</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -2125,11 +2049,11 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B50">
-        <f ca="1" t="shared" si="5"/>
-        <v>51</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -2137,11 +2061,11 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B51">
-        <f ca="1" t="shared" si="5"/>
-        <v>110</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -2149,11 +2073,11 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B52">
-        <f ca="1" t="shared" si="5"/>
-        <v>104</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -2161,11 +2085,11 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B53">
-        <f ca="1" t="shared" si="5"/>
-        <v>82</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -2173,23 +2097,23 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B54">
-        <f ca="1" t="shared" si="5"/>
-        <v>61</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" ht="14" customHeight="1" spans="1:3">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B55">
-        <f ca="1" t="shared" si="5"/>
-        <v>123</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -2197,109 +2121,13 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B56">
-        <f ca="1" t="shared" ref="B56:B64" si="6">RANDBETWEEN(24,128)</f>
-        <v>78</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>116</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57">
-        <f ca="1" t="shared" si="6"/>
-        <v>78</v>
-      </c>
-      <c r="C57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58">
-        <f ca="1" t="shared" si="6"/>
-        <v>78</v>
-      </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59">
-        <f ca="1" t="shared" si="6"/>
-        <v>88</v>
-      </c>
-      <c r="C59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>86</v>
-      </c>
-      <c r="B60">
-        <f ca="1" t="shared" si="6"/>
-        <v>118</v>
-      </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61">
-        <f ca="1" t="shared" si="6"/>
-        <v>98</v>
-      </c>
-      <c r="C61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>88</v>
-      </c>
-      <c r="B62">
-        <f ca="1" t="shared" si="6"/>
-        <v>52</v>
-      </c>
-      <c r="C62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>89</v>
-      </c>
-      <c r="B63">
-        <f ca="1" t="shared" si="6"/>
-        <v>78</v>
-      </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>90</v>
-      </c>
-      <c r="B64">
-        <f ca="1" t="shared" si="6"/>
-        <v>85</v>
-      </c>
-      <c r="C64" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2312,10 +2140,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C23"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -2339,7 +2167,8 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <f ca="1" t="shared" ref="B2:B23" si="0">RANDBETWEEN(24,128)</f>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -2350,7 +2179,8 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -2361,7 +2191,8 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -2372,7 +2203,8 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>81</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2383,7 +2215,8 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2394,7 +2227,8 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>109</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2405,7 +2239,8 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>92</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -2416,7 +2251,8 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -2427,153 +2263,11 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>123</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>119</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>122</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>79</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>103</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>105</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>111</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/public/语料制作流程数据.xlsx
+++ b/public/语料制作流程数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="近期任务" sheetId="1" r:id="rId1"/>
@@ -30,37 +30,37 @@
     <t>塑料材料组分数据知识提取</t>
   </si>
   <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>铝合金材料性状说明数据知识提取</t>
+  </si>
+  <si>
+    <t>硅酸盐矿物开采工艺数据知识提取</t>
+  </si>
+  <si>
+    <t>国家岩层构造分布数据平行语料制备</t>
+  </si>
+  <si>
+    <t>半导体材料说明平行语料制备</t>
+  </si>
+  <si>
+    <t>合成纤维及产业平行语料制备</t>
+  </si>
+  <si>
+    <t>结晶高分子/半结晶高分子材料数据知识提取</t>
+  </si>
+  <si>
+    <t>绝缘材料的理论知识提取</t>
+  </si>
+  <si>
+    <t>多孔材料的合成方法指令语料提取</t>
+  </si>
+  <si>
     <t>处理中</t>
   </si>
   <si>
-    <t>铝合金材料性状说明数据知识提取</t>
-  </si>
-  <si>
-    <t>硅酸盐矿物开采工艺数据知识提取</t>
-  </si>
-  <si>
-    <t>国家岩层构造分布数据平行语料制备</t>
-  </si>
-  <si>
-    <t>半导体材料说明平行语料制备</t>
-  </si>
-  <si>
-    <t>合成纤维及产业平行语料制备</t>
-  </si>
-  <si>
-    <t>结晶高分子/半结晶高分子材料数据知识提取</t>
-  </si>
-  <si>
-    <t>绝缘材料的理论知识提取</t>
-  </si>
-  <si>
-    <t>多孔材料的合成方法指令语料提取</t>
-  </si>
-  <si>
     <t>半绝缘材料的测试流程、规范指令语料提取</t>
-  </si>
-  <si>
-    <t>已完成</t>
   </si>
   <si>
     <t>包覆材料的工艺平行语料制备</t>
@@ -1166,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B2">
         <f ca="1" t="shared" ref="B2:B23" si="0">RANDBETWEEN(24,128)</f>
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B3">
         <f ca="1" t="shared" si="0"/>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B4">
         <f ca="1" t="shared" si="0"/>
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B5">
         <f ca="1" t="shared" si="0"/>
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B6">
         <f ca="1" t="shared" si="0"/>
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B7">
         <f ca="1" t="shared" si="0"/>
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B8">
         <f ca="1" t="shared" si="0"/>
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B9">
         <f ca="1" t="shared" si="0"/>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -1289,22 +1289,22 @@
       </c>
       <c r="B10">
         <f ca="1" t="shared" si="0"/>
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <f ca="1" t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
-      </c>
-      <c r="B11">
-        <f ca="1" t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1313,10 +1313,10 @@
       </c>
       <c r="B12">
         <f ca="1" t="shared" si="0"/>
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1325,10 +1325,10 @@
       </c>
       <c r="B13">
         <f ca="1" t="shared" si="0"/>
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B14">
         <f ca="1" t="shared" si="0"/>
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -1349,10 +1349,10 @@
       </c>
       <c r="B15">
         <f ca="1" t="shared" si="0"/>
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1361,10 +1361,10 @@
       </c>
       <c r="B16">
         <f ca="1" t="shared" si="0"/>
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1373,10 +1373,10 @@
       </c>
       <c r="B17">
         <f ca="1" t="shared" si="0"/>
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1385,10 +1385,10 @@
       </c>
       <c r="B18">
         <f ca="1" t="shared" si="0"/>
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="B19">
         <f ca="1" t="shared" si="0"/>
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -1409,10 +1409,10 @@
       </c>
       <c r="B20">
         <f ca="1" t="shared" si="0"/>
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1421,10 +1421,10 @@
       </c>
       <c r="B21">
         <f ca="1" t="shared" si="0"/>
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1433,10 +1433,10 @@
       </c>
       <c r="B22">
         <f ca="1" t="shared" si="0"/>
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1445,10 +1445,10 @@
       </c>
       <c r="B23">
         <f ca="1" t="shared" si="0"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1462,7 @@
   <sheetPr/>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1503,7 +1503,7 @@
         <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1514,7 +1514,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1536,7 +1536,7 @@
         <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1547,7 +1547,7 @@
         <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1558,7 +1558,7 @@
         <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1569,7 +1569,7 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1591,7 +1591,7 @@
         <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1602,7 +1602,7 @@
         <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1613,7 +1613,7 @@
         <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1624,7 +1624,7 @@
         <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1633,10 +1633,10 @@
       </c>
       <c r="B15">
         <f ca="1" t="shared" ref="B12:B20" si="0">RANDBETWEEN(24,128)</f>
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1645,10 +1645,10 @@
       </c>
       <c r="B16">
         <f ca="1" t="shared" si="0"/>
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1657,10 +1657,10 @@
       </c>
       <c r="B17">
         <f ca="1" t="shared" si="0"/>
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1669,10 +1669,10 @@
       </c>
       <c r="B18">
         <f ca="1" t="shared" si="0"/>
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1681,10 +1681,10 @@
       </c>
       <c r="B19">
         <f ca="1" t="shared" si="0"/>
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1693,10 +1693,10 @@
       </c>
       <c r="B20">
         <f ca="1" t="shared" si="0"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1705,10 +1705,10 @@
       </c>
       <c r="B21">
         <f ca="1" t="shared" ref="B21:B29" si="1">RANDBETWEEN(24,128)</f>
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1717,10 +1717,10 @@
       </c>
       <c r="B22">
         <f ca="1" t="shared" si="1"/>
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1732,7 +1732,7 @@
         <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1741,10 +1741,10 @@
       </c>
       <c r="B24">
         <f ca="1" t="shared" si="1"/>
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1753,10 +1753,10 @@
       </c>
       <c r="B25">
         <f ca="1" t="shared" si="1"/>
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1765,10 +1765,10 @@
       </c>
       <c r="B26">
         <f ca="1" t="shared" si="1"/>
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1777,10 +1777,10 @@
       </c>
       <c r="B27">
         <f ca="1" t="shared" si="1"/>
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1789,10 +1789,10 @@
       </c>
       <c r="B28">
         <f ca="1" t="shared" si="1"/>
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1801,10 +1801,10 @@
       </c>
       <c r="B29">
         <f ca="1" t="shared" si="1"/>
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1813,10 +1813,10 @@
       </c>
       <c r="B30">
         <f ca="1" t="shared" ref="B30:B38" si="2">RANDBETWEEN(24,128)</f>
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1825,10 +1825,10 @@
       </c>
       <c r="B31">
         <f ca="1" t="shared" si="2"/>
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1837,10 +1837,10 @@
       </c>
       <c r="B32">
         <f ca="1" t="shared" si="2"/>
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1849,10 +1849,10 @@
       </c>
       <c r="B33">
         <f ca="1" t="shared" si="2"/>
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1861,10 +1861,10 @@
       </c>
       <c r="B34">
         <f ca="1" t="shared" si="2"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1876,7 +1876,7 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1885,10 +1885,10 @@
       </c>
       <c r="B36">
         <f ca="1" t="shared" si="2"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1897,10 +1897,10 @@
       </c>
       <c r="B37">
         <f ca="1" t="shared" si="2"/>
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1909,10 +1909,10 @@
       </c>
       <c r="B38">
         <f ca="1" t="shared" si="2"/>
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1921,10 +1921,10 @@
       </c>
       <c r="B39">
         <f ca="1" t="shared" ref="B39:B47" si="3">RANDBETWEEN(24,128)</f>
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1933,10 +1933,10 @@
       </c>
       <c r="B40">
         <f ca="1" t="shared" si="3"/>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1945,10 +1945,10 @@
       </c>
       <c r="B41">
         <f ca="1" t="shared" si="3"/>
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1957,10 +1957,10 @@
       </c>
       <c r="B42">
         <f ca="1" t="shared" si="3"/>
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1969,10 +1969,10 @@
       </c>
       <c r="B43">
         <f ca="1" t="shared" si="3"/>
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1981,10 +1981,10 @@
       </c>
       <c r="B44">
         <f ca="1" t="shared" si="3"/>
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1993,10 +1993,10 @@
       </c>
       <c r="B45">
         <f ca="1" t="shared" si="3"/>
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2005,10 +2005,10 @@
       </c>
       <c r="B46">
         <f ca="1" t="shared" si="3"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1" spans="1:3">
@@ -2017,10 +2017,10 @@
       </c>
       <c r="B47">
         <f ca="1" t="shared" si="3"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2032,7 +2032,7 @@
         <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2041,10 +2041,10 @@
       </c>
       <c r="B49">
         <f ca="1" t="shared" si="4"/>
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2053,10 +2053,10 @@
       </c>
       <c r="B50">
         <f ca="1" t="shared" si="4"/>
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2065,10 +2065,10 @@
       </c>
       <c r="B51">
         <f ca="1" t="shared" si="4"/>
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2077,10 +2077,10 @@
       </c>
       <c r="B52">
         <f ca="1" t="shared" si="4"/>
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2089,10 +2089,10 @@
       </c>
       <c r="B53">
         <f ca="1" t="shared" si="4"/>
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2101,10 +2101,10 @@
       </c>
       <c r="B54">
         <f ca="1" t="shared" si="4"/>
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2113,10 +2113,10 @@
       </c>
       <c r="B55">
         <f ca="1" t="shared" si="4"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2125,10 +2125,10 @@
       </c>
       <c r="B56">
         <f ca="1" t="shared" si="4"/>
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2143,7 +2143,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -2168,10 +2168,10 @@
       </c>
       <c r="B2">
         <f ca="1" t="shared" ref="B2:B23" si="0">RANDBETWEEN(24,128)</f>
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2180,10 +2180,10 @@
       </c>
       <c r="B3">
         <f ca="1" t="shared" si="0"/>
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2192,10 +2192,10 @@
       </c>
       <c r="B4">
         <f ca="1" t="shared" si="0"/>
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2204,10 +2204,10 @@
       </c>
       <c r="B5">
         <f ca="1" t="shared" si="0"/>
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2216,10 +2216,10 @@
       </c>
       <c r="B6">
         <f ca="1" t="shared" si="0"/>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2228,10 +2228,10 @@
       </c>
       <c r="B7">
         <f ca="1" t="shared" si="0"/>
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2240,10 +2240,10 @@
       </c>
       <c r="B8">
         <f ca="1" t="shared" si="0"/>
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2252,10 +2252,10 @@
       </c>
       <c r="B9">
         <f ca="1" t="shared" si="0"/>
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2264,10 +2264,10 @@
       </c>
       <c r="B10">
         <f ca="1" t="shared" si="0"/>
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
